--- a/data/trans_dic/BARTHEL_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2553505172042912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0521919717026804</v>
+        <v>0.05219197170268039</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06117374147368644</v>
@@ -697,7 +697,7 @@
         <v>0.316460929058449</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.09260586223346134</v>
+        <v>0.09260586223346137</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02510984861338647</v>
+        <v>0.02500787511004978</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06542012930791484</v>
+        <v>0.0667929529225493</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.130039315460683</v>
+        <v>0.1449773189350422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01194216607453218</v>
+        <v>0.01456871796083306</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3253191130751582</v>
+        <v>0.3239410026530171</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2255766081955705</v>
+        <v>0.2235395940432845</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07740374786010641</v>
+        <v>0.07898565843789788</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03238635102344433</v>
+        <v>0.03433871556448715</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2220884633419162</v>
+        <v>0.2180155963811654</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2272406332656323</v>
+        <v>0.2239216700657772</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05750212819614396</v>
+        <v>0.05965394001532196</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2255596267198172</v>
+        <v>0.2298254239913172</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.275874668487173</v>
+        <v>0.2994715103251767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3870870968531223</v>
+        <v>0.395908737528249</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1219418200830604</v>
+        <v>0.1257554221857513</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1816883311552487</v>
+        <v>0.1829277348889909</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6060854582720266</v>
+        <v>0.6041074528293626</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5229849317210381</v>
+        <v>0.5073765356738997</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2049438372423736</v>
+        <v>0.2012710506337549</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1710282267748857</v>
+        <v>0.1588894272019358</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.411836167448114</v>
+        <v>0.4201556160326592</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4250844807272756</v>
+        <v>0.4262653350779843</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1413011407915045</v>
+        <v>0.143306968541107</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2211949964431257</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2809958398021738</v>
+        <v>0.2809958398021737</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1007869351757801</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01402833642479889</v>
+        <v>0.01443139274315409</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08130404432060682</v>
+        <v>0.07211888377236453</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02123114751914691</v>
+        <v>0.0259141408828274</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06309831563587402</v>
+        <v>0.06356367784657099</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07815891815954425</v>
+        <v>0.0771081156483364</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2439047373687251</v>
+        <v>0.2543264685033447</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1377486898750588</v>
+        <v>0.1397951534829875</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2178209803365238</v>
+        <v>0.2226212081587854</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05719031007530651</v>
+        <v>0.06071948649129837</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2025079099336201</v>
+        <v>0.2013502709982054</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1035214377427804</v>
+        <v>0.1043193412535094</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1691911951640418</v>
+        <v>0.1716666762504735</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1235517984067474</v>
+        <v>0.1205919727770988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2852802959874508</v>
+        <v>0.2747383325958004</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1264368727851014</v>
+        <v>0.1342989213718785</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1906838753533895</v>
+        <v>0.1925853148589698</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2232568458817956</v>
+        <v>0.2258494963239702</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.450404890310705</v>
+        <v>0.4418234943869087</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3094954024167878</v>
+        <v>0.3140700171231942</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.344594602882502</v>
+        <v>0.3476310545144559</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1578168381158049</v>
+        <v>0.154149313502437</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3506949023154045</v>
+        <v>0.3384426331401917</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2173559794221286</v>
+        <v>0.2129808103985036</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2605923781584269</v>
+        <v>0.2641747900077625</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.08115692983576607</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2473454974729796</v>
+        <v>0.2473454974729795</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1328147365295116</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01768250449685459</v>
+        <v>0.01752574591017287</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07382520042835101</v>
+        <v>0.07618225357779609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02610523302381046</v>
+        <v>0.03572578255161444</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1733282060637426</v>
+        <v>0.1778638570956719</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06809301085042754</v>
+        <v>0.06669116418313163</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1313339727112158</v>
+        <v>0.1393414995050526</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04564450177373388</v>
+        <v>0.0326472623033701</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2035581528676104</v>
+        <v>0.2074724691825137</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06378162530559082</v>
+        <v>0.06042829778310608</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1348019388326233</v>
+        <v>0.1424876387345156</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04958093672342438</v>
+        <v>0.05283596659769992</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2076773613306944</v>
+        <v>0.2079765399345089</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1524232347130153</v>
+        <v>0.1578722382058131</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2966581765502618</v>
+        <v>0.3091846256899231</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1742275008855492</v>
+        <v>0.1587870699330283</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3187595495640171</v>
+        <v>0.3264686632152133</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2252099735372202</v>
+        <v>0.2260475788262839</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3261861965681907</v>
+        <v>0.332944221308448</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1934276228889515</v>
+        <v>0.2064078788262878</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3399761288294615</v>
+        <v>0.3376221379452242</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1764018645262801</v>
+        <v>0.1660209579915234</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2840881559214546</v>
+        <v>0.2842645778140508</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1618204156596132</v>
+        <v>0.1647884360785655</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3125240763600204</v>
+        <v>0.3091292477944491</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2226398661140861</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1978986654684204</v>
+        <v>0.1978986654684203</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.110008608975048</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01497086608674974</v>
+        <v>0.01492188076142627</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06510683977546883</v>
+        <v>0.06481471661172375</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09688518858675964</v>
+        <v>0.09596869279425652</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04505339290789389</v>
+        <v>0.05004562174544755</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08104806075477491</v>
+        <v>0.08464406163692084</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1610832124755475</v>
+        <v>0.1608358614340693</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1364152943551468</v>
+        <v>0.1329208150082871</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1524242287020251</v>
+        <v>0.147583953953057</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06424390151187447</v>
+        <v>0.06255304621482795</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1332581590760399</v>
+        <v>0.1351915805136056</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1375297760913293</v>
+        <v>0.1395923524156787</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1178192180879604</v>
+        <v>0.1171907734774212</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1245907449494575</v>
+        <v>0.1263678423291171</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2360190994117298</v>
+        <v>0.2406631837505428</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2758186616677167</v>
+        <v>0.2789029215989558</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1471943254488001</v>
+        <v>0.1515629463796723</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2543789631575377</v>
+        <v>0.2599154632202347</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3490575461964014</v>
+        <v>0.3394917230439363</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3353512156125103</v>
+        <v>0.3321596378716066</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2513700677472924</v>
+        <v>0.2462392255396589</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1757736549839916</v>
+        <v>0.1724728597418034</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2683200693415702</v>
+        <v>0.2648161214420524</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.271010597142023</v>
+        <v>0.2753444596081879</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1907898682745436</v>
+        <v>0.1887793425175727</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2217327947191216</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.231782829832394</v>
+        <v>0.2317828298323941</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1958510639393026</v>
@@ -1241,7 +1241,7 @@
         <v>0.1384025186879486</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.209213942227042</v>
+        <v>0.2092139422270421</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0601284039711721</v>
+        <v>0.08109520082166728</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09614244432473182</v>
+        <v>0.07544064711585929</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0891866437212972</v>
+        <v>0.09841956086617352</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08598223205632595</v>
+        <v>0.08761156723922039</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.17295377280148</v>
+        <v>0.1642827196515313</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1127658804698845</v>
+        <v>0.1118631546723879</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1707030733928493</v>
+        <v>0.1680458473538635</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.117782639151529</v>
+        <v>0.1119868919551379</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1738011391882243</v>
+        <v>0.1713230751209674</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07730540460800521</v>
+        <v>0.07572404896513013</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1597677241330933</v>
+        <v>0.1604064100945204</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3338941858727087</v>
+        <v>0.3232854143115105</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3782533166349576</v>
+        <v>0.4126428728713586</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1186164695286173</v>
+        <v>0.1365036632813846</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2687356309049022</v>
+        <v>0.272360492631024</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3571326417949582</v>
+        <v>0.3638152748025823</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4270190302363603</v>
+        <v>0.4179909001074252</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3664573114010939</v>
+        <v>0.353330255899708</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3004623305599832</v>
+        <v>0.299671057095872</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2990645515848163</v>
+        <v>0.30298646693487</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3733444319856909</v>
+        <v>0.3766272923359089</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2279560938115904</v>
+        <v>0.2181933513613107</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.26968341058394</v>
+        <v>0.2689261712343241</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02000413237556911</v>
+        <v>0.01987217679108609</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1243316898082456</v>
+        <v>0.1236598365517441</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1145965051675867</v>
+        <v>0.1061573851363494</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1655059634919381</v>
+        <v>0.1639454180471867</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06816159967405969</v>
+        <v>0.06490258922255482</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1690942344487449</v>
+        <v>0.179404030077694</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2023425955498704</v>
+        <v>0.205328006432011</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2591563753424999</v>
+        <v>0.2646645353999054</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06001954953580701</v>
+        <v>0.06337216291274594</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1741087136967787</v>
+        <v>0.1784044254183196</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1965210097682449</v>
+        <v>0.1995488228813332</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2325975952917077</v>
+        <v>0.2319035989814801</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1797875937081838</v>
+        <v>0.1790348371420379</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3611761639057203</v>
+        <v>0.3501996048854912</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3327623817988939</v>
+        <v>0.3220522026885083</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3098111113803622</v>
+        <v>0.3043869138094422</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2474967583810148</v>
+        <v>0.2474362931712858</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3804094522617814</v>
+        <v>0.3901214888100939</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4629234580113952</v>
+        <v>0.4610108078112793</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4009967844429606</v>
+        <v>0.4030544689542833</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1824381338817968</v>
+        <v>0.1859049823440332</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3375233274363511</v>
+        <v>0.3314082599368851</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3702490404265689</v>
+        <v>0.3724288205860727</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.327122045078826</v>
+        <v>0.3283412678524394</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2095785086717386</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1810520170275987</v>
+        <v>0.1810520170275986</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01574161011538872</v>
+        <v>0.01589214373152176</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08259495969391156</v>
+        <v>0.08969315572180285</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07599892628744048</v>
+        <v>0.08046700357991587</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06971081498469266</v>
+        <v>0.06828760821336662</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01522530230806159</v>
+        <v>0.01648703788207301</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1533668011692911</v>
+        <v>0.1530947708404642</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1967326451649907</v>
+        <v>0.1917423529534126</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1912486760963522</v>
+        <v>0.189274772620033</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02047007975385898</v>
+        <v>0.01984287408675211</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1358245131359173</v>
+        <v>0.1399305969659266</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.161455807912727</v>
+        <v>0.1575516309357526</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1468765473248391</v>
+        <v>0.1442573230250842</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08908433880266182</v>
+        <v>0.09148799104730794</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2371654816843761</v>
+        <v>0.2443730275745689</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2041937964083453</v>
+        <v>0.2019896765343761</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1709079328292567</v>
+        <v>0.1742213495710998</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0893642465733902</v>
+        <v>0.0938211328526708</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3039250987899206</v>
+        <v>0.3028826238421689</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3626670063020755</v>
+        <v>0.3523082085729279</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3036359610949215</v>
+        <v>0.3003416023798067</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0734666922021364</v>
+        <v>0.07082752285802162</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2487697751572132</v>
+        <v>0.246904228849307</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2720620598834914</v>
+        <v>0.2601449493196353</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2236817895931953</v>
+        <v>0.2206300091423165</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.09114394802268772</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.09127330358170181</v>
+        <v>0.0912733035817018</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1910121991264644</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07519554436690233</v>
+        <v>0.07702335320953022</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0460878312863953</v>
+        <v>0.04558000165924925</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05016320300827749</v>
+        <v>0.051121299671039</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06001594414855516</v>
+        <v>0.05839937710333391</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1290720083143762</v>
+        <v>0.1325027405139039</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1362405606269682</v>
+        <v>0.1403366873414514</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.08982225416148713</v>
+        <v>0.08716523963181157</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.14296664216777</v>
+        <v>0.1456327134749456</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1252577206007948</v>
+        <v>0.1230251745590416</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1072422748694661</v>
+        <v>0.113808934622263</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07811685179873924</v>
+        <v>0.082571697067297</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1180810172669225</v>
+        <v>0.1198801483765322</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.200026871321505</v>
+        <v>0.2069843798420797</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1671822812384689</v>
+        <v>0.1692759411448619</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1493176369514403</v>
+        <v>0.1573057703443245</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1391882618199045</v>
+        <v>0.1357078059353158</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2589127043599432</v>
+        <v>0.2688582701273909</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2594943951313948</v>
+        <v>0.2707067040532024</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2067983049510538</v>
+        <v>0.2020440748898623</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2316120746209939</v>
+        <v>0.2333142559170447</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2199412973901222</v>
+        <v>0.2190172098351161</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1967237107690182</v>
+        <v>0.2021539321440556</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1608742014716459</v>
+        <v>0.1631869313410879</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1801826961511335</v>
+        <v>0.1782817140238332</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05945337702034552</v>
+        <v>0.06201777712561553</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1194661974566731</v>
+        <v>0.1197834281617317</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.09393714285838607</v>
+        <v>0.0950147842748811</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.107518593019347</v>
+        <v>0.1090724252550989</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1090825589652583</v>
+        <v>0.1115440447089625</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2270864013637616</v>
+        <v>0.224475628821827</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1844212478486017</v>
+        <v>0.1876409181414094</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2105090839735098</v>
+        <v>0.2101863468184201</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.09493386779726039</v>
+        <v>0.0936404206635955</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1915354371161057</v>
+        <v>0.1897191808320553</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.153781921885389</v>
+        <v>0.1545002727097729</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1696941726477344</v>
+        <v>0.1700733049316157</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.104787350763361</v>
+        <v>0.1073428281719093</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1835594003343589</v>
+        <v>0.1840200374816254</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1436416754500486</v>
+        <v>0.1455002202359778</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1498971791544236</v>
+        <v>0.1516048100562587</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1654076424618103</v>
+        <v>0.1642911756875978</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2922577494977263</v>
+        <v>0.2898526126371199</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2493932630837101</v>
+        <v>0.2514244434300952</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2514352744746131</v>
+        <v>0.2533576031726413</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1318035758450402</v>
+        <v>0.1298715026348456</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.238964065513868</v>
+        <v>0.2356114363057071</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1955905141284803</v>
+        <v>0.1972995935479556</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1994889020732241</v>
+        <v>0.1997102230548681</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2897</v>
+        <v>2958</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5058</v>
+        <v>5639</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>728</v>
+        <v>888</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15906</v>
+        <v>15839</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11141</v>
+        <v>11041</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5053</v>
+        <v>5156</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2417</v>
+        <v>2562</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>20693</v>
+        <v>20314</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>20062</v>
+        <v>19769</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7259</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7982</v>
+        <v>8133</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12216</v>
+        <v>13261</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15056</v>
+        <v>15399</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7433</v>
+        <v>7665</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7128</v>
+        <v>7176</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29634</v>
+        <v>29537</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25831</v>
+        <v>25060</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13378</v>
+        <v>13138</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>12762</v>
+        <v>11856</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>38373</v>
+        <v>39148</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>37529</v>
+        <v>37634</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17837</v>
+        <v>18090</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>935</v>
+        <v>962</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6440</v>
+        <v>5712</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1853</v>
+        <v>2262</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5576</v>
+        <v>5617</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7650</v>
+        <v>7547</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>24901</v>
+        <v>25965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15873</v>
+        <v>16108</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>29345</v>
+        <v>29991</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9409</v>
+        <v>9990</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>36714</v>
+        <v>36504</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>20965</v>
+        <v>21127</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>37745</v>
+        <v>38297</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8235</v>
+        <v>8038</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22595</v>
+        <v>21760</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11037</v>
+        <v>11724</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16851</v>
+        <v>17019</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21851</v>
+        <v>22105</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>45983</v>
+        <v>45107</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>35663</v>
+        <v>36190</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>46423</v>
+        <v>46833</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>25965</v>
+        <v>25362</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>63580</v>
+        <v>61358</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>44020</v>
+        <v>43134</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>58136</v>
+        <v>58935</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4115</v>
+        <v>4247</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1659</v>
+        <v>2270</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12529</v>
+        <v>12857</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5687</v>
+        <v>5570</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10503</v>
+        <v>11143</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3647</v>
+        <v>2608</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>17112</v>
+        <v>17441</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8576</v>
+        <v>8125</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>18294</v>
+        <v>19337</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7112</v>
+        <v>7579</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>32471</v>
+        <v>32517</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7764</v>
+        <v>8042</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16536</v>
+        <v>17235</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11071</v>
+        <v>10090</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23042</v>
+        <v>23599</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18810</v>
+        <v>18880</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>26084</v>
+        <v>26625</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15454</v>
+        <v>16491</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28580</v>
+        <v>28383</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23719</v>
+        <v>22323</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>38554</v>
+        <v>38578</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23212</v>
+        <v>23638</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>48863</v>
+        <v>48333</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4169</v>
+        <v>4150</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6270</v>
+        <v>6210</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3746</v>
+        <v>4162</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6023</v>
+        <v>6290</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>13785</v>
+        <v>13763</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12492</v>
+        <v>12172</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16843</v>
+        <v>16309</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8315</v>
+        <v>8097</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>19936</v>
+        <v>20225</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>21494</v>
+        <v>21816</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>22817</v>
+        <v>22695</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6868</v>
+        <v>6966</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15112</v>
+        <v>15409</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17849</v>
+        <v>18048</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12240</v>
+        <v>12603</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18904</v>
+        <v>19315</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29870</v>
+        <v>29052</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30709</v>
+        <v>30417</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27777</v>
+        <v>27210</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>22751</v>
+        <v>22324</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>40141</v>
+        <v>39617</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>42355</v>
+        <v>43032</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>36948</v>
+        <v>36559</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1765</v>
+        <v>2380</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3039</v>
+        <v>2385</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3211</v>
+        <v>3543</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3546</v>
+        <v>3614</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8623</v>
+        <v>8190</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5698</v>
+        <v>5653</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10382</v>
+        <v>10220</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8315</v>
+        <v>7905</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>14159</v>
+        <v>13957</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>7159</v>
+        <v>7013</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>15469</v>
+        <v>15531</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9799</v>
+        <v>9487</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11957</v>
+        <v>13044</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4991</v>
+        <v>5744</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9675</v>
+        <v>9805</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>14730</v>
+        <v>15006</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>21289</v>
+        <v>20839</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>18518</v>
+        <v>17854</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>18274</v>
+        <v>18226</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>21112</v>
+        <v>21389</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>30415</v>
+        <v>30683</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>21111</v>
+        <v>20207</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>26111</v>
+        <v>26037</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6435</v>
+        <v>6400</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5552</v>
+        <v>5143</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>9967</v>
+        <v>9873</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4792</v>
+        <v>4563</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>11872</v>
+        <v>12596</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>13635</v>
+        <v>13837</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>17444</v>
+        <v>17814</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>7053</v>
+        <v>7447</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>21236</v>
+        <v>21760</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>22764</v>
+        <v>23115</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>29664</v>
+        <v>29575</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8485</v>
+        <v>8450</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18693</v>
+        <v>18125</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16121</v>
+        <v>15602</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>18658</v>
+        <v>18331</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17401</v>
+        <v>17397</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>26709</v>
+        <v>27391</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>31195</v>
+        <v>31067</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>26991</v>
+        <v>27129</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>21438</v>
+        <v>21845</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>41167</v>
+        <v>40421</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>42887</v>
+        <v>43140</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>41719</v>
+        <v>41874</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1667</v>
+        <v>1683</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9272</v>
+        <v>10069</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>8526</v>
+        <v>9027</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>10480</v>
+        <v>10266</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1783</v>
+        <v>1931</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>21772</v>
+        <v>21734</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>29043</v>
+        <v>28306</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>31141</v>
+        <v>30820</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>4566</v>
+        <v>4426</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>34530</v>
+        <v>35574</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>41948</v>
+        <v>40933</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>45997</v>
+        <v>45177</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9437</v>
+        <v>9691</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>26625</v>
+        <v>27434</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>22907</v>
+        <v>22660</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>25694</v>
+        <v>26192</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>10466</v>
+        <v>10988</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>43146</v>
+        <v>42998</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>53539</v>
+        <v>52009</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>49441</v>
+        <v>48905</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>16387</v>
+        <v>15798</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>63244</v>
+        <v>62769</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>70684</v>
+        <v>67588</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>70050</v>
+        <v>69094</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>8414</v>
+        <v>8618</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>5565</v>
+        <v>5504</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6730</v>
+        <v>6859</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>9777</v>
+        <v>9513</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>19777</v>
+        <v>20303</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>22400</v>
+        <v>23074</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>15835</v>
+        <v>15367</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>30253</v>
+        <v>30818</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>33208</v>
+        <v>32616</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>30582</v>
+        <v>32455</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>24253</v>
+        <v>25636</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>44223</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>22382</v>
+        <v>23160</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>20188</v>
+        <v>20440</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>20034</v>
+        <v>21105</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>22674</v>
+        <v>22107</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>39672</v>
+        <v>41196</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>42665</v>
+        <v>44509</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>36458</v>
+        <v>35620</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>49012</v>
+        <v>49372</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>58310</v>
+        <v>58065</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>56100</v>
+        <v>57648</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>49946</v>
+        <v>50664</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>67481</v>
+        <v>66769</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>29873</v>
+        <v>31162</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>66858</v>
+        <v>67035</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>55548</v>
+        <v>56185</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>76793</v>
+        <v>77903</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>73832</v>
+        <v>75498</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>168720</v>
+        <v>166780</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>143467</v>
+        <v>145972</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>188855</v>
+        <v>188566</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>111956</v>
+        <v>110431</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>249496</v>
+        <v>247130</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>210567</v>
+        <v>211551</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>273440</v>
+        <v>274051</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>52652</v>
+        <v>53936</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>102727</v>
+        <v>102984</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>84939</v>
+        <v>86038</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>107061</v>
+        <v>108281</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>111955</v>
+        <v>111199</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>217140</v>
+        <v>215353</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>194011</v>
+        <v>195591</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>225571</v>
+        <v>227296</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>155437</v>
+        <v>153159</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>311277</v>
+        <v>306910</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>267814</v>
+        <v>270154</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>321450</v>
+        <v>321807</v>
       </c>
     </row>
     <row r="40">
